--- a/DRFAPI/test.xlsx
+++ b/DRFAPI/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Django Project\DRFAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92FF4A4-87A1-4EC7-8F30-601C3D1777C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565A09B0-AC89-4190-A4C5-3E641B358F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -39,40 +39,38 @@
     <t>Omkar Sutar</t>
   </si>
   <si>
+    <t>Sourabh Achrekar</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Kolhapur</t>
+  </si>
+  <si>
+    <t>Sindhudurg</t>
+  </si>
+  <si>
+    <t>+919075566435</t>
+  </si>
+  <si>
+    <t>+918888309418</t>
+  </si>
+  <si>
     <t>omkarsutar1255@gmail.com</t>
   </si>
   <si>
-    <t>Sourabh Achrekar</t>
-  </si>
-  <si>
     <t>sourabh@gmail.com</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Kolhapur</t>
-  </si>
-  <si>
-    <t>Sindhudurg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,16 +93,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,12 +383,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -405,42 +405,39 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>9075566435</v>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>8866887588</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A5DF66C2-14CC-403B-ACDD-0AC3C3E7BDF5}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{DBE02515-F594-439B-A5E8-4493ADF3D59E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>